--- a/DataBase/DDL.xlsx
+++ b/DataBase/DDL.xlsx
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q25" t="s">
         <v>32</v>

--- a/DataBase/DDL.xlsx
+++ b/DataBase/DDL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baode\Desktop\ATuan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20_Project\ATuan\branch_20180322\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
